--- a/doc/詳細設計/list_db_定義書.xlsx
+++ b/doc/詳細設計/list_db_定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18450" windowHeight="10770" tabRatio="952" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18450" windowHeight="10770" tabRatio="952" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="f" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="277">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -769,29 +769,6 @@
   </si>
   <si>
     <t>is_deleted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録日時、　属性：ON UPDATE CURRENT_TIMESTAMP</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゾクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日時、　属性：ON UPDATE CURRENT_TIMESTAMP</t>
-    <rPh sb="0" eb="4">
-      <t>コウシンニチジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゾクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -821,10 +798,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>group_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -846,14 +819,6 @@
   </si>
   <si>
     <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>group</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -968,10 +933,6 @@
   </si>
   <si>
     <t>users_groups</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>range</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1160,10 +1121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>water_temp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>temp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1172,10 +1129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start_air</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>finsh_air</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1196,18 +1149,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tank_material</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tank_capacity</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>double</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1221,10 +1166,6 @@
   </si>
   <si>
     <t>dive_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shop_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1342,10 +1283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>area_title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>is_fixed</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1422,10 +1359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0：ボート 1：ビーチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0：晴れ 1：曇り 2：雨 3：その他</t>
     <rPh sb="2" eb="3">
       <t>ハ</t>
@@ -1462,13 +1395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0：ワンピース 1：2ピース 2：セミドライ 3：ドライ 4：水着</t>
-    <rPh sb="31" eb="33">
-      <t>ミズギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル（予定）</t>
     <rPh sb="5" eb="7">
       <t>ヨテイ</t>
@@ -1514,10 +1440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>open</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0：非公開　1：公開</t>
     <rPh sb="2" eb="5">
       <t>ヒコウカイ</t>
@@ -1541,6 +1463,67 @@
   </si>
   <si>
     <t>group_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性：ON UPDATE current_timestamp()</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>divelog_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trip_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：ボート 1：ビーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_air</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>water_temp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tank_material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：ワンピース 1：2ピース 2：セミドライ 3：ドライ 4：水着 5：その他</t>
+    <rPh sb="31" eb="33">
+      <t>ミズギ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2670,10 +2653,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5698,7 +5681,7 @@
       <c r="Q3" s="63"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5706,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
@@ -5720,7 +5703,7 @@
       <c r="K4" s="79"/>
       <c r="L4" s="79"/>
       <c r="M4" s="96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N4" s="96"/>
       <c r="O4" s="96"/>
@@ -5728,7 +5711,7 @@
       <c r="Q4" s="97"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5764,14 +5747,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
       <c r="H6" s="92" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I6" s="92"/>
       <c r="J6" s="92"/>
@@ -5876,21 +5859,21 @@
         <v>7</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I10" s="90"/>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
       <c r="M10" s="94" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N10" s="94"/>
       <c r="O10" s="94"/>
@@ -6052,7 +6035,7 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -6066,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="25" customFormat="1">
@@ -6074,7 +6057,7 @@
         <v>157</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -6254,15 +6237,15 @@
     </row>
     <row r="12" spans="1:37" s="40" customFormat="1">
       <c r="A12" s="33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:37">
       <c r="B13" s="104" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="105"/>
@@ -6346,7 +6329,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="B16" s="89" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
@@ -6389,7 +6372,7 @@
     </row>
     <row r="17" spans="1:37">
       <c r="B17" s="111" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C17" s="112"/>
       <c r="D17" s="112"/>
@@ -6641,7 +6624,7 @@
   <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:K7"/>
+      <selection activeCell="G19" sqref="G19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -6708,7 +6691,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -6762,7 +6745,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
@@ -6800,7 +6783,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="58" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -7063,7 +7046,7 @@
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
       <c r="G18" s="79" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -7114,7 +7097,7 @@
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -7140,7 +7123,7 @@
       <c r="Y19" s="79"/>
       <c r="Z19" s="79"/>
       <c r="AA19" s="79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AB19" s="79"/>
       <c r="AC19" s="79"/>
@@ -7218,7 +7201,7 @@
       <c r="E21" s="94"/>
       <c r="F21" s="94"/>
       <c r="G21" s="94" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H21" s="94"/>
       <c r="I21" s="94"/>
@@ -7311,7 +7294,7 @@
       <c r="E23" s="79"/>
       <c r="F23" s="79"/>
       <c r="G23" s="79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
@@ -7339,7 +7322,7 @@
       <c r="Y23" s="79"/>
       <c r="Z23" s="79"/>
       <c r="AA23" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
@@ -7394,7 +7377,7 @@
       <c r="Y24" s="79"/>
       <c r="Z24" s="79"/>
       <c r="AA24" s="79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AB24" s="79"/>
       <c r="AC24" s="79"/>
@@ -7448,9 +7431,7 @@
       <c r="X25" s="79"/>
       <c r="Y25" s="79"/>
       <c r="Z25" s="79"/>
-      <c r="AA25" s="83" t="s">
-        <v>160</v>
-      </c>
+      <c r="AA25" s="83"/>
       <c r="AB25" s="83"/>
       <c r="AC25" s="83"/>
       <c r="AD25" s="83"/>
@@ -7504,7 +7485,7 @@
       <c r="Y26" s="79"/>
       <c r="Z26" s="79"/>
       <c r="AA26" s="83" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="AB26" s="83"/>
       <c r="AC26" s="83"/>
@@ -7798,14 +7779,14 @@
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R35" s="85"/>
       <c r="S35" s="85"/>
       <c r="T35" s="85"/>
       <c r="U35" s="85"/>
       <c r="V35" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W35" s="85"/>
       <c r="X35" s="85"/>
@@ -9479,7 +9460,7 @@
   <dimension ref="A1:AL64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:K7"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -9544,7 +9525,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -9602,7 +9583,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
@@ -9644,7 +9625,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="58" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -9922,7 +9903,7 @@
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
       <c r="G18" s="79" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -10055,9 +10036,7 @@
       <c r="X20" s="79"/>
       <c r="Y20" s="79"/>
       <c r="Z20" s="79"/>
-      <c r="AA20" s="83" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA20" s="83"/>
       <c r="AB20" s="83"/>
       <c r="AC20" s="83"/>
       <c r="AD20" s="83"/>
@@ -10110,20 +10089,20 @@
       <c r="X21" s="79"/>
       <c r="Y21" s="79"/>
       <c r="Z21" s="79"/>
-      <c r="AA21" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="80"/>
+      <c r="AA21" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="84"/>
     </row>
     <row r="22" spans="1:38" ht="14.25" thickBot="1">
       <c r="A22" s="13" t="s">
@@ -10443,14 +10422,14 @@
       <c r="O30" s="85"/>
       <c r="P30" s="85"/>
       <c r="Q30" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R30" s="85"/>
       <c r="S30" s="85"/>
       <c r="T30" s="85"/>
       <c r="U30" s="85"/>
       <c r="V30" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W30" s="85"/>
       <c r="X30" s="85"/>
@@ -12203,8 +12182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:K7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -12267,7 +12246,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -12285,7 +12264,7 @@
       <c r="S4" s="57"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -12313,7 +12292,7 @@
       <c r="S5" s="61"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -12325,7 +12304,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
@@ -12363,7 +12342,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="58" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -12634,7 +12613,7 @@
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
       <c r="G18" s="79" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -12685,7 +12664,7 @@
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -12763,9 +12742,7 @@
       <c r="X20" s="79"/>
       <c r="Y20" s="79"/>
       <c r="Z20" s="79"/>
-      <c r="AA20" s="83" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA20" s="83"/>
       <c r="AB20" s="83"/>
       <c r="AC20" s="83"/>
       <c r="AD20" s="83"/>
@@ -12819,7 +12796,7 @@
       <c r="Y21" s="79"/>
       <c r="Z21" s="79"/>
       <c r="AA21" s="83" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="AB21" s="83"/>
       <c r="AC21" s="83"/>
@@ -12950,7 +12927,7 @@
       <c r="E26" s="85"/>
       <c r="F26" s="85"/>
       <c r="G26" s="85" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H26" s="85"/>
       <c r="I26" s="85"/>
@@ -12962,14 +12939,14 @@
       <c r="O26" s="85"/>
       <c r="P26" s="85"/>
       <c r="Q26" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R26" s="85"/>
       <c r="S26" s="85"/>
       <c r="T26" s="85"/>
       <c r="U26" s="85"/>
       <c r="V26" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W26" s="85"/>
       <c r="X26" s="85"/>
@@ -14707,8 +14684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26:Z28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -14774,7 +14751,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -14832,7 +14809,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
@@ -14874,7 +14851,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="58" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -15202,14 +15179,14 @@
         <v>3</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -15253,7 +15230,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="79"/>
@@ -15304,14 +15281,14 @@
         <v>3</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
       <c r="F21" s="79"/>
       <c r="G21" s="79" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
@@ -15362,7 +15339,7 @@
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
       <c r="G22" s="79" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
@@ -15390,7 +15367,7 @@
       <c r="Y22" s="79"/>
       <c r="Z22" s="79"/>
       <c r="AA22" s="79" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AB22" s="79"/>
       <c r="AC22" s="79"/>
@@ -15410,21 +15387,21 @@
         <v>6</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="94" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H23" s="94"/>
       <c r="I23" s="94"/>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
       <c r="L23" s="131" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M23" s="94"/>
       <c r="N23" s="94"/>
@@ -15443,7 +15420,7 @@
       <c r="Y23" s="94"/>
       <c r="Z23" s="94"/>
       <c r="AA23" s="131" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AB23" s="94"/>
       <c r="AC23" s="94"/>
@@ -15510,21 +15487,21 @@
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
       <c r="G25" s="79" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
       <c r="J25" s="79"/>
       <c r="K25" s="79"/>
       <c r="L25" s="79" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M25" s="79"/>
       <c r="N25" s="79"/>
       <c r="O25" s="79"/>
       <c r="P25" s="79"/>
       <c r="Q25" s="79" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R25" s="79"/>
       <c r="S25" s="79"/>
@@ -15536,7 +15513,7 @@
       <c r="Y25" s="79"/>
       <c r="Z25" s="79"/>
       <c r="AA25" s="138" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AB25" s="138"/>
       <c r="AC25" s="138"/>
@@ -15563,7 +15540,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="94"/>
       <c r="G26" s="94" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="94"/>
@@ -15591,7 +15568,7 @@
       <c r="Y26" s="94"/>
       <c r="Z26" s="94"/>
       <c r="AA26" s="131" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AB26" s="131"/>
       <c r="AC26" s="131"/>
@@ -15691,14 +15668,14 @@
         <v>9</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C29" s="141"/>
       <c r="D29" s="141"/>
       <c r="E29" s="141"/>
       <c r="F29" s="141"/>
       <c r="G29" s="92" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H29" s="92"/>
       <c r="I29" s="92"/>
@@ -15718,15 +15695,15 @@
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
       <c r="U29" s="92"/>
-      <c r="V29" s="143">
+      <c r="V29" s="142">
         <v>0</v>
       </c>
-      <c r="W29" s="143"/>
-      <c r="X29" s="143"/>
-      <c r="Y29" s="143"/>
-      <c r="Z29" s="143"/>
+      <c r="W29" s="142"/>
+      <c r="X29" s="142"/>
+      <c r="Y29" s="142"/>
+      <c r="Z29" s="142"/>
       <c r="AA29" s="92" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AB29" s="92"/>
       <c r="AC29" s="92"/>
@@ -15738,7 +15715,7 @@
       <c r="AI29" s="92"/>
       <c r="AJ29" s="92"/>
       <c r="AK29" s="92"/>
-      <c r="AL29" s="142"/>
+      <c r="AL29" s="143"/>
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="29">
@@ -15808,7 +15785,7 @@
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
       <c r="G31" s="79" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H31" s="79"/>
       <c r="I31" s="79"/>
@@ -15835,9 +15812,7 @@
       <c r="X31" s="79"/>
       <c r="Y31" s="79"/>
       <c r="Z31" s="79"/>
-      <c r="AA31" s="83" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA31" s="83"/>
       <c r="AB31" s="83"/>
       <c r="AC31" s="83"/>
       <c r="AD31" s="83"/>
@@ -15891,7 +15866,7 @@
       <c r="Y32" s="79"/>
       <c r="Z32" s="79"/>
       <c r="AA32" s="83" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="AB32" s="83"/>
       <c r="AC32" s="83"/>
@@ -16253,14 +16228,14 @@
       <c r="O41" s="85"/>
       <c r="P41" s="85"/>
       <c r="Q41" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R41" s="85"/>
       <c r="S41" s="85"/>
       <c r="T41" s="85"/>
       <c r="U41" s="85"/>
       <c r="V41" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W41" s="85"/>
       <c r="X41" s="85"/>
@@ -18066,8 +18041,8 @@
   </sheetPr>
   <dimension ref="A1:AL75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:S13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -18129,7 +18104,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -18182,7 +18157,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
@@ -18219,7 +18194,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="58" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -18236,7 +18211,7 @@
       <c r="E8" s="54"/>
       <c r="F8" s="55"/>
       <c r="G8" s="58" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
@@ -18530,14 +18505,14 @@
         <v>3</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -18581,21 +18556,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="79"/>
       <c r="E20" s="79"/>
       <c r="F20" s="79"/>
       <c r="G20" s="79" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M20" s="79"/>
       <c r="N20" s="79"/>
@@ -18632,21 +18607,21 @@
         <v>5</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
       <c r="F21" s="79"/>
       <c r="G21" s="79" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
       <c r="J21" s="79"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M21" s="79"/>
       <c r="N21" s="79"/>
@@ -18683,14 +18658,14 @@
         <v>6</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79"/>
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
       <c r="G22" s="79" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
@@ -18716,7 +18691,7 @@
       <c r="Y22" s="79"/>
       <c r="Z22" s="79"/>
       <c r="AA22" s="79" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AB22" s="79"/>
       <c r="AC22" s="79"/>
@@ -18736,21 +18711,21 @@
         <v>7</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="94" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H23" s="94"/>
       <c r="I23" s="94"/>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
       <c r="L23" s="131" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M23" s="94"/>
       <c r="N23" s="94"/>
@@ -18769,7 +18744,7 @@
       <c r="Y23" s="94"/>
       <c r="Z23" s="94"/>
       <c r="AA23" s="131" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AB23" s="94"/>
       <c r="AC23" s="94"/>
@@ -18836,21 +18811,21 @@
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
       <c r="G25" s="79" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
       <c r="J25" s="79"/>
       <c r="K25" s="79"/>
       <c r="L25" s="79" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M25" s="79"/>
       <c r="N25" s="79"/>
       <c r="O25" s="79"/>
       <c r="P25" s="79"/>
       <c r="Q25" s="79" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R25" s="79"/>
       <c r="S25" s="79"/>
@@ -18862,7 +18837,7 @@
       <c r="Y25" s="79"/>
       <c r="Z25" s="79"/>
       <c r="AA25" s="138" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AB25" s="138"/>
       <c r="AC25" s="138"/>
@@ -18889,7 +18864,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="94"/>
       <c r="G26" s="94" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="94"/>
@@ -18917,7 +18892,7 @@
       <c r="Y26" s="94"/>
       <c r="Z26" s="94"/>
       <c r="AA26" s="131" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AB26" s="131"/>
       <c r="AC26" s="131"/>
@@ -19017,14 +18992,14 @@
         <v>10</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="79"/>
       <c r="E29" s="79"/>
       <c r="F29" s="79"/>
       <c r="G29" s="79" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H29" s="79"/>
       <c r="I29" s="79"/>
@@ -19052,7 +19027,7 @@
       <c r="Y29" s="79"/>
       <c r="Z29" s="79"/>
       <c r="AA29" s="79" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AB29" s="79"/>
       <c r="AC29" s="79"/>
@@ -19134,7 +19109,7 @@
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
       <c r="G31" s="79" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H31" s="79"/>
       <c r="I31" s="79"/>
@@ -19161,9 +19136,7 @@
       <c r="X31" s="79"/>
       <c r="Y31" s="79"/>
       <c r="Z31" s="79"/>
-      <c r="AA31" s="83" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA31" s="83"/>
       <c r="AB31" s="83"/>
       <c r="AC31" s="83"/>
       <c r="AD31" s="83"/>
@@ -19217,7 +19190,7 @@
       <c r="Y32" s="79"/>
       <c r="Z32" s="79"/>
       <c r="AA32" s="83" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="AB32" s="83"/>
       <c r="AC32" s="83"/>
@@ -21162,7 +21135,7 @@
   <dimension ref="A1:AL95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46:Z48"/>
+      <selection activeCell="G49" sqref="G49:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -21224,7 +21197,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -21277,7 +21250,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
@@ -21314,7 +21287,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="58" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -21625,14 +21598,14 @@
         <v>3</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -21676,7 +21649,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="79"/>
@@ -21727,14 +21700,14 @@
         <v>5</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
       <c r="F21" s="79"/>
       <c r="G21" s="79" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
@@ -21778,21 +21751,21 @@
         <v>6</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79"/>
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
       <c r="G22" s="79" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
       <c r="L22" s="79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M22" s="79"/>
       <c r="N22" s="79"/>
@@ -21829,14 +21802,14 @@
         <v>7</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
       <c r="F23" s="79"/>
       <c r="G23" s="79" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
@@ -21880,14 +21853,14 @@
         <v>8</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
       <c r="F24" s="79"/>
       <c r="G24" s="79" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="H24" s="79"/>
       <c r="I24" s="79"/>
@@ -21931,14 +21904,14 @@
         <v>9</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
       <c r="G25" s="79" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
@@ -21966,7 +21939,7 @@
       <c r="Y25" s="79"/>
       <c r="Z25" s="79"/>
       <c r="AA25" s="79" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AB25" s="79"/>
       <c r="AC25" s="79"/>
@@ -21986,21 +21959,21 @@
         <v>10</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
       <c r="E26" s="79"/>
       <c r="F26" s="79"/>
       <c r="G26" s="79" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="H26" s="79"/>
       <c r="I26" s="79"/>
       <c r="J26" s="79"/>
       <c r="K26" s="79"/>
       <c r="L26" s="79" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M26" s="79"/>
       <c r="N26" s="79"/>
@@ -22037,21 +22010,21 @@
         <v>11</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="79"/>
       <c r="E27" s="79"/>
       <c r="F27" s="79"/>
       <c r="G27" s="79" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H27" s="79"/>
       <c r="I27" s="79"/>
       <c r="J27" s="79"/>
       <c r="K27" s="79"/>
       <c r="L27" s="79" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M27" s="79"/>
       <c r="N27" s="79"/>
@@ -22088,21 +22061,21 @@
         <v>12</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
       <c r="F28" s="79"/>
       <c r="G28" s="79" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="H28" s="79"/>
       <c r="I28" s="79"/>
       <c r="J28" s="79"/>
       <c r="K28" s="79"/>
       <c r="L28" s="79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M28" s="79"/>
       <c r="N28" s="79"/>
@@ -22139,21 +22112,21 @@
         <v>13</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="79"/>
       <c r="E29" s="79"/>
       <c r="F29" s="79"/>
       <c r="G29" s="79" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H29" s="79"/>
       <c r="I29" s="79"/>
       <c r="J29" s="79"/>
       <c r="K29" s="79"/>
       <c r="L29" s="79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M29" s="79"/>
       <c r="N29" s="79"/>
@@ -22190,21 +22163,21 @@
         <v>14</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
       <c r="F30" s="79"/>
       <c r="G30" s="79" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H30" s="79"/>
       <c r="I30" s="79"/>
       <c r="J30" s="79"/>
       <c r="K30" s="79"/>
       <c r="L30" s="79" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M30" s="79"/>
       <c r="N30" s="79"/>
@@ -22241,21 +22214,21 @@
         <v>15</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="79"/>
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
       <c r="G31" s="79" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="H31" s="79"/>
       <c r="I31" s="79"/>
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
       <c r="L31" s="79" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M31" s="79"/>
       <c r="N31" s="79"/>
@@ -22292,21 +22265,21 @@
         <v>16</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="79"/>
       <c r="E32" s="79"/>
       <c r="F32" s="79"/>
       <c r="G32" s="79" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
       <c r="J32" s="79"/>
       <c r="K32" s="79"/>
       <c r="L32" s="79" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M32" s="79"/>
       <c r="N32" s="79"/>
@@ -22343,21 +22316,21 @@
         <v>17</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
       <c r="G33" s="79" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
       <c r="J33" s="79"/>
       <c r="K33" s="79"/>
       <c r="L33" s="79" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M33" s="79"/>
       <c r="N33" s="79"/>
@@ -22394,21 +22367,21 @@
         <v>18</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="79"/>
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
       <c r="G34" s="79" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H34" s="79"/>
       <c r="I34" s="79"/>
       <c r="J34" s="79"/>
       <c r="K34" s="79"/>
       <c r="L34" s="79" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M34" s="79"/>
       <c r="N34" s="79"/>
@@ -22429,7 +22402,7 @@
       <c r="Y34" s="79"/>
       <c r="Z34" s="79"/>
       <c r="AA34" s="79" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AB34" s="79"/>
       <c r="AC34" s="79"/>
@@ -22449,14 +22422,14 @@
         <v>19</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="79"/>
       <c r="E35" s="79"/>
       <c r="F35" s="79"/>
       <c r="G35" s="79" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H35" s="79"/>
       <c r="I35" s="79"/>
@@ -22484,7 +22457,7 @@
       <c r="Y35" s="79"/>
       <c r="Z35" s="79"/>
       <c r="AA35" s="79" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AB35" s="79"/>
       <c r="AC35" s="79"/>
@@ -22504,14 +22477,14 @@
         <v>20</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
       <c r="E36" s="79"/>
       <c r="F36" s="79"/>
       <c r="G36" s="79" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H36" s="79"/>
       <c r="I36" s="79"/>
@@ -22539,7 +22512,7 @@
       <c r="Y36" s="79"/>
       <c r="Z36" s="79"/>
       <c r="AA36" s="79" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AB36" s="79"/>
       <c r="AC36" s="79"/>
@@ -22559,21 +22532,21 @@
         <v>14</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="79"/>
       <c r="E37" s="79"/>
       <c r="F37" s="79"/>
       <c r="G37" s="79" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
       <c r="J37" s="79"/>
       <c r="K37" s="79"/>
       <c r="L37" s="79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M37" s="79"/>
       <c r="N37" s="79"/>
@@ -22610,14 +22583,14 @@
         <v>21</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
       <c r="G38" s="79" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
@@ -22645,7 +22618,7 @@
       <c r="Y38" s="79"/>
       <c r="Z38" s="79"/>
       <c r="AA38" s="138" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AB38" s="138"/>
       <c r="AC38" s="138"/>
@@ -22665,21 +22638,21 @@
         <v>22</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
       <c r="G39" s="79" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H39" s="79"/>
       <c r="I39" s="79"/>
       <c r="J39" s="79"/>
       <c r="K39" s="79"/>
       <c r="L39" s="79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M39" s="79"/>
       <c r="N39" s="79"/>
@@ -22712,25 +22685,25 @@
     </row>
     <row r="40" spans="1:38" s="40" customFormat="1">
       <c r="A40" s="41">
-        <f>A26+1</f>
-        <v>11</v>
+        <f>A39+1</f>
+        <v>23</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
       <c r="G40" s="79" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H40" s="79"/>
       <c r="I40" s="79"/>
       <c r="J40" s="79"/>
       <c r="K40" s="79"/>
       <c r="L40" s="79" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="M40" s="79"/>
       <c r="N40" s="79"/>
@@ -22743,45 +22716,49 @@
       <c r="S40" s="79"/>
       <c r="T40" s="79"/>
       <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
+      <c r="V40" s="79">
+        <v>0</v>
+      </c>
       <c r="W40" s="79"/>
       <c r="X40" s="79"/>
       <c r="Y40" s="79"/>
       <c r="Z40" s="79"/>
-      <c r="AA40" s="79"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79"/>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="79"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="80"/>
+      <c r="AA40" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB40" s="138"/>
+      <c r="AC40" s="138"/>
+      <c r="AD40" s="138"/>
+      <c r="AE40" s="138"/>
+      <c r="AF40" s="138"/>
+      <c r="AG40" s="138"/>
+      <c r="AH40" s="138"/>
+      <c r="AI40" s="138"/>
+      <c r="AJ40" s="138"/>
+      <c r="AK40" s="138"/>
+      <c r="AL40" s="139"/>
     </row>
     <row r="41" spans="1:38" s="40" customFormat="1">
       <c r="A41" s="41">
-        <f>A39+1</f>
-        <v>23</v>
+        <f>A40+1</f>
+        <v>24</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
       <c r="G41" s="79" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H41" s="79"/>
       <c r="I41" s="79"/>
       <c r="J41" s="79"/>
       <c r="K41" s="79"/>
       <c r="L41" s="79" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="M41" s="79"/>
       <c r="N41" s="79"/>
@@ -22794,16 +22771,12 @@
       <c r="S41" s="79"/>
       <c r="T41" s="79"/>
       <c r="U41" s="79"/>
-      <c r="V41" s="79">
-        <v>0</v>
-      </c>
+      <c r="V41" s="79"/>
       <c r="W41" s="79"/>
       <c r="X41" s="79"/>
       <c r="Y41" s="79"/>
       <c r="Z41" s="79"/>
-      <c r="AA41" s="138" t="s">
-        <v>266</v>
-      </c>
+      <c r="AA41" s="138"/>
       <c r="AB41" s="138"/>
       <c r="AC41" s="138"/>
       <c r="AD41" s="138"/>
@@ -22818,25 +22791,25 @@
     </row>
     <row r="42" spans="1:38" s="40" customFormat="1">
       <c r="A42" s="41">
-        <f>A41+1</f>
-        <v>24</v>
+        <f>A26+1</f>
+        <v>11</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
       <c r="G42" s="79" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
       <c r="J42" s="79"/>
       <c r="K42" s="79"/>
       <c r="L42" s="79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M42" s="79"/>
       <c r="N42" s="79"/>
@@ -22854,40 +22827,40 @@
       <c r="X42" s="79"/>
       <c r="Y42" s="79"/>
       <c r="Z42" s="79"/>
-      <c r="AA42" s="138"/>
-      <c r="AB42" s="138"/>
-      <c r="AC42" s="138"/>
-      <c r="AD42" s="138"/>
-      <c r="AE42" s="138"/>
-      <c r="AF42" s="138"/>
-      <c r="AG42" s="138"/>
-      <c r="AH42" s="138"/>
-      <c r="AI42" s="138"/>
-      <c r="AJ42" s="138"/>
-      <c r="AK42" s="138"/>
-      <c r="AL42" s="139"/>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="79"/>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="79"/>
+      <c r="AE42" s="79"/>
+      <c r="AF42" s="79"/>
+      <c r="AG42" s="79"/>
+      <c r="AH42" s="79"/>
+      <c r="AI42" s="79"/>
+      <c r="AJ42" s="79"/>
+      <c r="AK42" s="79"/>
+      <c r="AL42" s="80"/>
     </row>
     <row r="43" spans="1:38" ht="13.5" customHeight="1">
       <c r="A43" s="124">
-        <f>A42+1</f>
+        <f>A41+1</f>
         <v>25</v>
       </c>
       <c r="B43" s="129" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
       <c r="F43" s="94"/>
       <c r="G43" s="94" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
       <c r="K43" s="94"/>
       <c r="L43" s="131" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M43" s="94"/>
       <c r="N43" s="94"/>
@@ -22906,7 +22879,7 @@
       <c r="Y43" s="94"/>
       <c r="Z43" s="94"/>
       <c r="AA43" s="131" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AB43" s="94"/>
       <c r="AC43" s="94"/>
@@ -22973,21 +22946,21 @@
       <c r="E45" s="79"/>
       <c r="F45" s="79"/>
       <c r="G45" s="79" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
       <c r="J45" s="79"/>
       <c r="K45" s="79"/>
       <c r="L45" s="79" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M45" s="79"/>
       <c r="N45" s="79"/>
       <c r="O45" s="79"/>
       <c r="P45" s="79"/>
       <c r="Q45" s="79" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R45" s="79"/>
       <c r="S45" s="79"/>
@@ -22999,7 +22972,7 @@
       <c r="Y45" s="79"/>
       <c r="Z45" s="79"/>
       <c r="AA45" s="138" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AB45" s="138"/>
       <c r="AC45" s="138"/>
@@ -23026,7 +22999,7 @@
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
       <c r="G46" s="94" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="H46" s="94"/>
       <c r="I46" s="94"/>
@@ -23054,7 +23027,7 @@
       <c r="Y46" s="94"/>
       <c r="Z46" s="94"/>
       <c r="AA46" s="131" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AB46" s="131"/>
       <c r="AC46" s="131"/>
@@ -23154,14 +23127,14 @@
         <v>28</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
       <c r="F49" s="79"/>
       <c r="G49" s="79" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H49" s="79"/>
       <c r="I49" s="79"/>
@@ -23189,7 +23162,7 @@
       <c r="Y49" s="79"/>
       <c r="Z49" s="79"/>
       <c r="AA49" s="79" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
@@ -23271,7 +23244,7 @@
       <c r="E51" s="79"/>
       <c r="F51" s="79"/>
       <c r="G51" s="79" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H51" s="79"/>
       <c r="I51" s="79"/>
@@ -23298,9 +23271,7 @@
       <c r="X51" s="79"/>
       <c r="Y51" s="79"/>
       <c r="Z51" s="79"/>
-      <c r="AA51" s="83" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA51" s="83"/>
       <c r="AB51" s="83"/>
       <c r="AC51" s="83"/>
       <c r="AD51" s="83"/>
@@ -23354,7 +23325,7 @@
       <c r="Y52" s="79"/>
       <c r="Z52" s="79"/>
       <c r="AA52" s="83" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="AB52" s="83"/>
       <c r="AC52" s="83"/>
@@ -23614,14 +23585,14 @@
       <c r="O61" s="85"/>
       <c r="P61" s="85"/>
       <c r="Q61" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R61" s="85"/>
       <c r="S61" s="85"/>
       <c r="T61" s="85"/>
       <c r="U61" s="85"/>
       <c r="V61" s="85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="W61" s="85"/>
       <c r="X61" s="85"/>
@@ -24985,24 +24956,24 @@
     <mergeCell ref="Q38:U38"/>
     <mergeCell ref="V38:Z38"/>
     <mergeCell ref="AA38:AL38"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="AA42:AL42"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="AA41:AL41"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="G39:K39"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="Q39:U39"/>
     <mergeCell ref="V39:Z39"/>
     <mergeCell ref="AA39:AL39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="AA41:AL41"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:U40"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="AA40:AL40"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="G37:K37"/>
     <mergeCell ref="L37:P37"/>
@@ -25065,12 +25036,12 @@
     <mergeCell ref="Q26:U26"/>
     <mergeCell ref="V26:Z26"/>
     <mergeCell ref="AA26:AL26"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:U40"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="AA40:AL40"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="AA42:AL42"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="L27:P27"/>
